--- a/data/trans_bre/P21D_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P21D_1_R-Edad-trans_bre.xlsx
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.056069312504493</v>
+        <v>1.395332736717316</v>
       </c>
       <c r="D12" s="6" t="inlineStr"/>
     </row>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.110010108854132</v>
+        <v>1.542209625533041</v>
       </c>
       <c r="D18" s="6" t="inlineStr"/>
     </row>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3032907023771109</v>
+        <v>0.2664166611066164</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
     </row>
